--- a/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Информация для сотрудников.xlsx
+++ b/УП.01 2023 41П Мухин Н.А/2_Основные/Сессия 2/Информация для сотрудников.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main\RDP\41П\лебедевааф\Desktop\УП.01 2023 41П Мухин Н.А\2_Основные\Сессия 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C036E83E-F745-419C-84D0-08FB67FA0EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A6E1BD-AF98-47A2-B5AB-8A847939F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,11 +133,15 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7674282-497E-444E-A9D4-DD113FD04417}">
   <dimension ref="A3:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -688,10 +693,10 @@
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
     </row>
